--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-02_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-02_end.xlsx
@@ -540,7 +540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]  None of your business, "Little Miss."
+    <t xml:space="preserve">[name="Ch'en"]  None of your business, 'Little Miss.'
 </t>
   </si>
   <si>
